--- a/Data/salary_info.xlsx
+++ b/Data/salary_info.xlsx
@@ -2683,7 +2683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2737,6 +2737,11 @@
           <t>proj_finals_in_cat</t>
         </is>
       </c>
+      <c r="J1" s="10" t="inlineStr">
+        <is>
+          <t>found_of_cat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="10" t="n">
@@ -2748,36 +2753,41 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'CS': 14, 'DSA': 12, 'ST': 12, 'MA': 7}</t>
+          <t>{'CS': 14, 'DSA': 12, 'ST': 12, 'MA': 8}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{4: 20, 3: 14, 2: 8, 1: 2, 5: 1}</t>
+          <t>{4: 20, 3: 14, 2: 9, 1: 2, 5: 1}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'finals': 51.11111111111111, 'proj': 48.888888888888886}</t>
+          <t>{'finals': 52.17391304347826, 'proj': 47.82608695652174}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'Statistics': 12.5, 'Data Science': 12.0, 'Mathematics': 9, 'Computer Science': 8, 'Data Analytics': 3.5}</t>
+          <t>{'Statistics': 14, 'Data Science and Analytics': 12, 'Computer Science': 10, 'Mathematics': 10}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'Computer Science': ['Programming Methodology', 'Data Structures and Algorithms', 'Parallel Computing', 'Database Systems Implementation', 'Design and Analysis of Algorithms', 'Distributed Databases', 'Parallel and Distributed Algorithms', 'Optimisation Algorithms'], 'Data Analytics': ['Essential Data Analytics Tools: Data Visualisation', 'Honours Project in Data Science and Analytics', 'Applied Project in Data Science and Analytics', 'Sense-making Case Analysis: Health and Medicine', 'Sense-making Case Analysis: Business and Commerce', 'Sense-making Case Analysis: Science and Technology'], 'Data Science': ['Introduction to Data Science', 'Machine Learning', 'Data Science in Practice', 'Optimisation for Large-Scale Data-Driven Inference', 'Introduction to Artificial Intelligence', 'Big Data Systems for Data Science', 'Computer Vision and Pattern Recognition', 'Natural Language Processing', 'Uncertainty Modelling in AI', 'Honours Project in Data Science and Analytics', 'Applied Project in Data Science and Analytics', 'Sense-making Case Analysis: Health and Medicine', 'Sense-making Case Analysis: Business and Commerce', 'Sense-making Case Analysis: Science and Technology', 'High-Dimensional Statistical Analysis'], 'Statistics': ['High-Dimensional Statistical Analysis', 'Probability', 'Mathematical Statistics', 'Regression Analysis', 'Design &amp; Analysis of Experiments', 'Applied Time Series Analysis', 'Survey Methodology', 'Multivariate Statistical Analysis', 'Simulation', 'Statistical Learning I', 'Computer Intensive Statistical Methods', 'Bayesian Statistics', 'Statistical Learning II'], 'Mathematics': ['Linear Algebra I', 'Calculus', 'Essential Data Analytics Tools: Numerical Computation', 'Techniques in Advanced Calculus', 'Essential Data Analytics Tools: Convex Optimisation', 'Non-Linear Programming', 'Linear and Network Optimisation', 'Data Modelling and Computation', 'Matrix Computation']}</t>
+          <t>{'Computer Science': ['Programming Methodology', 'Data Structures and Algorithms', 'Parallel Computing', 'Database Systems Implementation', 'Design and Analysis of Algorithms', 'Distributed Databases', 'Parallel and Distributed Algorithms', 'Optimisation Algorithms', 'Computer Vision and Pattern Recognition', 'Natural Language Processing'], 'Data Science and Analytics': ['Introduction to Data Science', 'Essential Data Analytics Tools: Data Visualisation', 'Machine Learning', 'Data Science in Practice', 'Honours Project in Data Science and Analytics', 'Applied Project in Data Science and Analytics', 'Sense-making Case Analysis: Health and Medicine', 'Sense-making Case Analysis: Business and Commerce', 'Sense-making Case Analysis: Science and Technology', 'Introduction to Artificial Intelligence', 'Big Data Systems for Data Science', 'Uncertainty Modelling in AI'], 'Mathematics': ['Linear Algebra I', 'Calculus', 'Essential Data Analytics Tools: Numerical Computation', 'Techniques in Advanced Calculus', 'Multivariable Calculus', 'Essential Data Analytics Tools: Convex Optimisation', 'Non-Linear Programming', 'Linear and Network Optimisation', 'Data Modelling and Computation', 'Matrix Computation'], 'Statistics': ['Probability', 'Mathematical Statistics', 'Regression Analysis', 'High-Dimensional Statistical Analysis', 'Optimisation for Large-Scale Data-Driven Inference', 'Design &amp; Analysis of Experiments', 'Applied Time Series Analysis', 'Survey Methodology', 'Multivariate Statistical Analysis', 'Simulation', 'Statistical Learning I', 'Computer Intensive Statistical Methods', 'Bayesian Statistics', 'Statistical Learning II']}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'Computer Science': {'mod_proj': 3.5, 'mod_finals': 4.5}, 'Data Analytics': {'mod_proj': 3.0, 'mod_finals': 0.5}, 'Data Science': {'mod_proj': 7.75, 'mod_finals': 4.25}, 'Statistics': {'mod_proj': 5.75, 'mod_finals': 6.75}, 'Mathematics': {'mod_proj': 2.0, 'mod_finals': 7.0}}</t>
+          <t>{'Computer Science': {'mod_proj': 4.5, 'mod_finals': 5.5}, 'Data Science and Analytics': {'mod_proj': 9.0, 'mod_finals': 3.0}, 'Mathematics': {'mod_proj': 2.0, 'mod_finals': 8.0}, 'Statistics': {'mod_proj': 6.5, 'mod_finals': 7.5}}</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{'Computer Science': ['Programming Methodology', 'Data Structures and Algorithms', 'Parallel Computing', 'Database Systems Implementation', 'Design and Analysis of Algorithms', 'Distributed Databases', 'Parallel and Distributed Algorithms', 'Optimisation Algorithms', 'Computer Vision and Pattern Recognition', 'Natural Language Processing'], 'Data Science and Analytics': ['Introduction to Data Science', 'Essential Data Analytics Tools: Data Visualisation', 'Machine Learning', 'Data Science in Practice', 'Honours Project in Data Science and Analytics', 'Applied Project in Data Science and Analytics', 'Sense-making Case Analysis: Health and Medicine', 'Sense-making Case Analysis: Business and Commerce', 'Sense-making Case Analysis: Science and Technology', 'Introduction to Artificial Intelligence', 'Big Data Systems for Data Science', 'Uncertainty Modelling in AI'], 'Mathematics': ['Linear Algebra I', 'Calculus', 'Essential Data Analytics Tools: Numerical Computation', 'Techniques in Advanced Calculus', 'Multivariable Calculus', 'Essential Data Analytics Tools: Convex Optimisation', 'Non-Linear Programming', 'Linear and Network Optimisation', 'Data Modelling and Computation', 'Matrix Computation'], 'Statistics': ['Probability', 'Mathematical Statistics', 'Regression Analysis', 'High-Dimensional Statistical Analysis', 'Optimisation for Large-Scale Data-Driven Inference', 'Design &amp; Analysis of Experiments', 'Applied Time Series Analysis', 'Survey Methodology', 'Multivariate Statistical Analysis', 'Simulation', 'Statistical Learning I', 'Computer Intensive Statistical Methods', 'Bayesian Statistics', 'Statistical Learning II']}</t>
         </is>
       </c>
     </row>
@@ -2823,6 +2833,11 @@
           <t>{'Computer Science': {'mod_proj': 1.5, 'mod_finals': 4.5}, 'Data Analytics': {'mod_proj': 1.5, 'mod_finals': 1.5}, 'Data Science': {'mod_proj': 2.5, 'mod_finals': 1.5}, 'Mathematics': {'mod_proj': 0.0, 'mod_finals': 4.0}, 'Other': {'mod_proj': 4.5, 'mod_finals': 3.5}, 'Statistics': {'mod_proj': 0.0, 'mod_finals': 2.0}}</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{'Computer Science': ['Introduction to Computational Thinking &amp; Programming', 'Data Structures&amp; Algorithms', 'Object Oriented Design and Programming', 'Algorithm Design and Analysis', 'Software Engineering', 'Introduction to Database Systems'], 'Data Analytics': ['Data Analysis with Computer', 'Data Analytics and Mining', 'Professional Internship', 'Final Year Project'], 'Data Science': ['Introduction to Data Science &amp; AI', 'Artificial Intelligence', 'Machine Learning', 'Professional Internship', 'Final Year Project'], 'Mathematics': ['Calculus I and II', 'Discrete Mathematics', 'Linear Algebra for Scientists', 'Calculus III'], 'Other': ['Inquiry and Communication in an Interdisciplinary World', 'Navigating the Digital World', 'Ethics &amp; Moral Reasoning in a Multi-Cultural World', 'Healthy Living &amp; Mental Well-being in an Aging Society', 'Sustainability: Society, Economy &amp; Environment', 'Career and Entrepreneurial Development for the Future World', 'Communication Across the Sciences', 'Science&amp;Technology for Humanity'], 'Statistics': ['Probability and Introduction to Statistics', 'Statistics']}</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="n">
@@ -2866,6 +2881,11 @@
           <t>{'Computer Science': {'mod_proj': 0.5, 'mod_finals': 0.5}, 'Data Analytics': {'mod_proj': 2.25, 'mod_finals': 3.25}, 'Data Science': {'mod_proj': 0.75, 'mod_finals': 0.75}, 'Statistics': {'mod_proj': 0.5, 'mod_finals': 2.5}}</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{'Computer Science': ['Business Data Management', 'Data Management', 'Computational Thinking'], 'Data Analytics': ['Spreadsheet Modeling and Analytics', 'Data Analytics with R', 'Time Series Data Analytics', 'Spatial Data Analysis', 'Panel and Longitudinal Data Analysis', 'Applied Healthcare Analytics', 'Geospatial Analytics and Applications', 'Data Warehousing and Business Analytics', 'Data Mining and Business Analytics', 'Visual Analytics for Business Intelligence', 'Marketing Analytics', 'Service and Operations Analytics', 'Forecasting and Forensic Analytics'], 'Data Science': ['Introduction to Artificial Intelligence', 'Principles of Machine Learning', 'Big Data Analytics', 'Economic Forecasting', 'Machine Learning &amp; Applications', 'Forecasting and Forensic Analytics'], 'Statistics': ['Statistical Inference for Data Science', 'Statistical Learning with R', 'Probability Theory and Applications']}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="n">
@@ -2909,6 +2929,11 @@
           <t>{'Computer Science': {'mod_proj': 2.25, 'mod_finals': 1.25}, 'Mathematics': {'mod_proj': 0.25, 'mod_finals': 0.25}, 'Data Analytics': {'mod_proj': 8.0, 'mod_finals': 3.5}, 'Data Science': {'mod_proj': 3.0, 'mod_finals': 2.5}, 'Other': {'mod_proj': 5.0, 'mod_finals': 4.0}, 'Statistics': {'mod_proj': 1.0, 'mod_finals': 1.0}}</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{'Computer Science': ['Internet of Things (IoT)', 'Data Programming', 'Database Management Systems', 'Quantitative Methods'], 'Mathematics': ['Quantitative Methods'], 'Data Analytics': ['Data Visualisation for Business', 'Python for Data Analytics', 'Fundamentals of Data Mining', 'Business Analytics Applications and Issues', 'Business Analytics Applied Project', 'Accounting Analytics', 'SAS Programming and its Application', 'Applied Operations Research', 'Operations Analytics', 'Social Media Metrics &amp; Analytics', 'Customer Insights and Analytics', 'Independent Study'], 'Data Science': ['Association and Clustering', 'Predictive Modelling', 'Text Mining and Applied Project Formulation', 'Business Forecasting', 'Applications of Artificial Intelligence in Healthcare', 'Independent Study'], 'Other': ['Financial and Managerial Accounting', 'Essentials of Financial Management', 'Marketing Management', 'Management in the Digital Age', 'Contract and Agency Law', 'Project Management', 'Starting and Managing a business', 'Economic Ideas and Models for Business', 'Marketing Research'], 'Statistics': ['Statistics', 'Statistical Methods']}</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="n">
@@ -2952,6 +2977,11 @@
           <t>{'Computer Science': {'mod_proj': 11.25, 'mod_finals': 10.25}, 'Data Science': {'mod_proj': 4.0, 'mod_finals': 4.0}, 'Mathematics': {'mod_proj': 0.25, 'mod_finals': 0.25}}</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{'Computer Science': ['Computational Thinking for Design', 'Information Systems &amp; Programming', 'Computation Structures', 'Elements of Software Construction', 'Algorithms', 'Computer System Engineering', 'User Interface Design and Implementation', 'Networks', 'Graphics and Visualisation', 'Network Security', 'Foundations of Game Design and Development', 'Blockchain Technology', 'Distributed Systems and Computing', 'Foundations of Cybersecurity', 'System Security', 'Cloud Computing and Internet of Things', 'Parallel Computing on Multicore Architectures', 'Programming Language Concepts', 'Extended Reality', 'Software Testing and Verification', 'Database Systems', 'Information Retrieval', 'Discrete Mathematics and Algorithm Design'], 'Data Science': ['Database Systems', 'Information Retrieval', 'Machine Learning', 'Statistical and Machine Learning', 'Computational Data Science', 'Computer Vision', 'Theory and Practice of Deep Learning', 'Natural Language Processing', 'Artificial Intelligence'], 'Mathematics': ['Discrete Mathematics and Algorithm Design']}</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="n">
@@ -2993,6 +3023,11 @@
       <c r="I7" t="inlineStr">
         <is>
           <t>{'Computer Science': {'mod_proj': 11.25, 'mod_finals': 10.25}, 'Data Science': {'mod_proj': 4.0, 'mod_finals': 4.0}, 'Mathematics': {'mod_proj': 0.25, 'mod_finals': 0.25}}</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>{'Computer Science': ['Introduction to Computer Systems', 'Programming Fundamentals', 'Data Structures and Algorithms', 'Web Systems and Technologies', 'Object-Oriented Programming', 'Introduction to Software Engineering', 'Embedded Systems Programming', 'Database Systems', 'Industry Certification Module', 'Cyber Security Fundamentals', 'Edge Computing and Analytics'], 'Data Analytics': ['Data Engineering and Visualization', 'Data Analytics ', 'Edge Computing and Analytics', 'Integrated Work Study Programme', 'Capstone Project'], 'Data Science': ['Machine Learning', 'Cloud Computing and Big Data', 'Artificial Intelligence in Business and Society', 'Natural Language Processing', 'AI Cross-Domain Project', 'Computer Vision and Deep Learning', 'Integrated Work Study Programme', 'Capstone Project'], 'Mathematics': ['Mathematics 1', 'Mathematics 2'], 'Other': ['Ethics and Professional Conducts', 'Change Management', 'Integrative Team Project']}</t>
         </is>
       </c>
     </row>
